--- a/อื่น ๆ/เอกสารการแบ่งงาน.xlsx
+++ b/อื่น ๆ/เอกสารการแบ่งงาน.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\อื่น ๆ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B827712-0FBD-4F68-AE60-C15F1B093C39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F66810-17D0-46FC-83C5-B219C6659AE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19455" yWindow="3165" windowWidth="14400" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13215" yWindow="975" windowWidth="14400" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cycle 1" sheetId="1" r:id="rId1"/>
@@ -152,15 +152,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -483,337 +483,337 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B3" s="2">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6">
-        <v>3</v>
-      </c>
-      <c r="E3" s="6">
+      <c r="D3" s="4">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6">
-        <v>2</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4">
         <f>SUM(D3:H3)</f>
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B4" s="2"/>
-      <c r="C4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6">
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
         <f>SUM(D4:H4)</f>
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B5" s="2"/>
-      <c r="C5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6">
-        <v>2</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
         <f t="shared" ref="I5:I13" si="0">SUM(D5:H5)</f>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B6" s="2"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B7" s="2"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6">
-        <v>3</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B8" s="2"/>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6">
-        <v>3</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6">
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B9" s="2"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6">
-        <v>3</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B10" s="2"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6">
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
         <v>1</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B11" s="2"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="6">
-        <v>3</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6">
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B12" s="2"/>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
-        <v>2</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B13" s="2"/>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <v>2</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B14" s="4">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="6">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B15" s="4"/>
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B16" s="4"/>
-      <c r="C16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B17" s="4"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B18" s="4"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B19" s="4"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B20" s="4"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B21" s="4"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B22" s="4"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B23" s="4"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:9" ht="27" x14ac:dyDescent="0.6">
-      <c r="B24" s="4"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/อื่น ๆ/เอกสารการแบ่งงาน.xlsx
+++ b/อื่น ๆ/เอกสารการแบ่งงาน.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\อื่น ๆ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F66810-17D0-46FC-83C5-B219C6659AE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B1A59A-7F17-4020-8F92-990A01A5DEE3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13215" yWindow="975" windowWidth="14400" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cycle 1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="B2:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -537,7 +537,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ref="I5:I13" si="0">SUM(D5:H5)</f>
+        <f t="shared" ref="I5:I24" si="0">SUM(D5:H5)</f>
         <v>3</v>
       </c>
     </row>
@@ -689,11 +689,18 @@
         <v>1</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="27" x14ac:dyDescent="0.6">
       <c r="B15" s="6"/>
@@ -702,10 +709,15 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:9" ht="27" x14ac:dyDescent="0.6">
       <c r="B16" s="6"/>
@@ -714,10 +726,15 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="2:9" ht="27" x14ac:dyDescent="0.6">
       <c r="B17" s="6"/>
@@ -728,8 +745,13 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="H17" s="2">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="2:9" ht="27" x14ac:dyDescent="0.6">
       <c r="B18" s="6"/>
@@ -738,10 +760,15 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="2:9" ht="27" x14ac:dyDescent="0.6">
       <c r="B19" s="6"/>
@@ -750,10 +777,15 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:9" ht="27" x14ac:dyDescent="0.6">
       <c r="B20" s="6"/>
@@ -761,11 +793,16 @@
         <v>7</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="27" x14ac:dyDescent="0.6">
       <c r="B21" s="6"/>
@@ -776,8 +813,13 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="2">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="2:9" ht="27" x14ac:dyDescent="0.6">
       <c r="B22" s="6"/>
@@ -786,10 +828,15 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="2:9" ht="27" x14ac:dyDescent="0.6">
       <c r="B23" s="6"/>
@@ -798,10 +845,15 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="2:9" ht="27" x14ac:dyDescent="0.6">
       <c r="B24" s="6"/>
@@ -810,10 +862,15 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
